--- a/hecCalc/2023/documentum/Total BOQ_STB GAH(온통).xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_STB GAH(온통).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F456A-1C9E-4623-BFEC-FC653A301015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B58FBF-339D-4AF1-8C8C-3AA0EF0CDA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ View (Working)" sheetId="1" r:id="rId1"/>
@@ -39584,10 +39584,10 @@
       </c>
       <c r="H58" s="13">
         <f t="shared" si="0"/>
-        <v>2027.415</v>
+        <v>2023.9770000000001</v>
       </c>
       <c r="I58" s="13">
-        <v>2027.415</v>
+        <v>2023.9770000000001</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
